--- a/Improgress/2. Artifact and Deliverable/Requirement/TracebilityMetrix/RE_TracebilityMetrix_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/TracebilityMetrix/RE_TracebilityMetrix_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\TracebilityMetrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86E948-8AF1-45F2-9029-0DEA76F7A336}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F764238-F980-41FA-9CD9-0F199EA33E49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{9F3A5F64-1EB5-4F1C-8BB4-9243BB22A76A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
   <si>
     <t>TRACEBILITY MATRIX</t>
   </si>
@@ -275,18 +275,6 @@
     <t>As an Admin, I can classify</t>
   </si>
   <si>
-    <t>As a user I can sign up a business trip</t>
-  </si>
-  <si>
-    <t>As a director/department head I can approve a business trip</t>
-  </si>
-  <si>
-    <t>As a user I locate the business trip</t>
-  </si>
-  <si>
-    <t>As a user I can view the history of business trips</t>
-  </si>
-  <si>
     <t>As an Admin, I upload the organization chart</t>
   </si>
   <si>
@@ -517,9 +505,6 @@
     <t>Tìm kiếm so sánh kết quả kinh doanh mục "Phòng"</t>
   </si>
   <si>
-    <t>Xem kết quả kinh doanh mục "Nhân viên"</t>
-  </si>
-  <si>
     <t>Xem chuyến đi công tác</t>
   </si>
   <si>
@@ -539,9 +524,6 @@
   </si>
   <si>
     <t>FR.14.2</t>
-  </si>
-  <si>
-    <t>Chức năng khác</t>
   </si>
   <si>
     <t>Xem thông tin cá nhân</t>
@@ -607,32 +589,68 @@
     <t>As an Admin, I can view week business results "Employee, Team, Room"</t>
   </si>
   <si>
-    <t>As a User, I can view information personal</t>
+    <t>FR.20.1</t>
   </si>
   <si>
-    <t>As a User, I can happy birthday</t>
+    <t>FR.20.2</t>
   </si>
   <si>
-    <t>As a director/department head/ deputy department I can approve a business trip</t>
+    <t>Tìm kiếm tài khoản</t>
   </si>
   <si>
-    <t>As a User, I can search business trips</t>
+    <t>Xuất file excel tài khoản</t>
   </si>
   <si>
-    <t>As a director / division manager, I can refuse the employee's business trip</t>
+    <t>As an admin, I can search for accounts</t>
   </si>
   <si>
-    <t>As a User, I can view detail business tríp</t>
+    <t>As an Admin, I can export file excel</t>
   </si>
   <si>
-    <t>As a User, I can view business trip</t>
+    <t>Import file</t>
+  </si>
+  <si>
+    <t>Tải mẫu file excel</t>
+  </si>
+  <si>
+    <t>Thêm phòng ban</t>
+  </si>
+  <si>
+    <t>Sửa phòng ban</t>
+  </si>
+  <si>
+    <t>Xóa phòng ban</t>
+  </si>
+  <si>
+    <t>Xem phòng ban</t>
+  </si>
+  <si>
+    <t>As an Admin, I can import file excel</t>
+  </si>
+  <si>
+    <t>As an Admin, I can view personal information</t>
+  </si>
+  <si>
+    <t>As an Admin, I can download template file excel</t>
+  </si>
+  <si>
+    <t>As an Admin, I can add, edit, delete and view room</t>
+  </si>
+  <si>
+    <t>FR.59</t>
+  </si>
+  <si>
+    <t>FR.60</t>
+  </si>
+  <si>
+    <t>FR.61</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +722,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -985,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1069,6 +1093,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,33 +1139,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,17 +1160,1978 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="249">
+  <dxfs count="443">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3661,31 +5643,21 @@
       <sheetName val="Product Backlog"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="L4" t="str">
-            <v>Mobile App</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>High</v>
+            <v>Complete</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5" t="str">
-            <v>Web App</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>Medium</v>
+            <v>Complete</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6" t="str">
-            <v>Mobile App &amp;&amp; 
-Web App</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>Low</v>
+            <v>Complete</v>
           </cell>
         </row>
       </sheetData>
@@ -4007,18 +5979,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>93</v>
+      <c r="A1" s="34" t="s">
+        <v>89</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -4037,16 +6009,16 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -4065,24 +6037,24 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="9"/>
       <c r="L3" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>95</v>
+      <c r="M3" s="40" t="s">
+        <v>91</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="18"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -4097,24 +6069,24 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="9"/>
       <c r="L4" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>96</v>
+      <c r="M4" s="40" t="s">
+        <v>92</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="18"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -4129,24 +6101,24 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="9"/>
       <c r="L5" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
-      <c r="M5" s="35" t="s">
-        <v>97</v>
+      <c r="M5" s="40" t="s">
+        <v>93</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="18"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -4161,24 +6133,24 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="9"/>
       <c r="L6" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
-      <c r="M6" s="35" t="s">
-        <v>98</v>
+      <c r="M6" s="40" t="s">
+        <v>94</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="18"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -4193,24 +6165,24 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="9"/>
       <c r="L7" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
-      <c r="M7" s="35" t="s">
-        <v>99</v>
+      <c r="M7" s="40" t="s">
+        <v>95</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="18"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -4225,16 +6197,16 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="7"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -4253,16 +6225,16 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="7"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -4281,16 +6253,16 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="7"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
@@ -4309,23 +6281,23 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="37" t="s">
-        <v>88</v>
+      <c r="L11" s="42" t="s">
+        <v>84</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -4339,28 +6311,28 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="9"/>
       <c r="L12" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -4375,28 +6347,28 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="9"/>
       <c r="L13" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="O13" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -4411,16 +6383,16 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="9"/>
       <c r="L14" s="27"/>
       <c r="M14" s="28"/>
@@ -4439,16 +6411,16 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="9"/>
       <c r="L15" s="27"/>
       <c r="M15" s="28"/>
@@ -4467,16 +6439,16 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="9"/>
       <c r="L16" s="11"/>
       <c r="M16" s="10"/>
@@ -4495,16 +6467,16 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="9"/>
       <c r="L17" s="11"/>
       <c r="M17" s="10"/>
@@ -4523,16 +6495,16 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="9"/>
       <c r="L18" s="11"/>
       <c r="M18" s="10"/>
@@ -4551,16 +6523,16 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="9"/>
       <c r="L19" s="11"/>
       <c r="M19" s="10"/>
@@ -4579,16 +6551,16 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="9"/>
       <c r="L20" s="11"/>
       <c r="M20" s="10"/>
@@ -32063,10 +34035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20734057-097D-4E08-8626-0D1D964875DC}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32079,122 +34051,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>101</v>
+      <c r="F4" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>124</v>
+      <c r="B5" s="54" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>164</v>
+      <c r="E5" s="45" t="s">
+        <v>158</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -32203,209 +34175,209 @@
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>165</v>
+      <c r="E10" s="32" t="s">
+        <v>159</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>82</v>
+      <c r="E11" s="32" t="s">
+        <v>78</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>167</v>
+      <c r="E16" s="31" t="s">
+        <v>161</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>166</v>
+      <c r="E17" s="32" t="s">
+        <v>160</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>168</v>
+      <c r="E18" s="31" t="s">
+        <v>162</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>169</v>
+      <c r="E19" s="32" t="s">
+        <v>163</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>170</v>
+      <c r="E20" s="31" t="s">
+        <v>164</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>173</v>
+      <c r="E21" s="32" t="s">
+        <v>167</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>130</v>
+      <c r="B22" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -32413,1640 +34385,2460 @@
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="49" t="s">
-        <v>172</v>
+      <c r="E22" s="32" t="s">
+        <v>166</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>171</v>
+      <c r="E23" s="32" t="s">
+        <v>165</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="44"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B29" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="44"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="44"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="42"/>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>175</v>
+      <c r="E31" s="50"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
       </c>
-      <c r="F31" s="44"/>
-    </row>
-    <row r="32" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="44"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>177</v>
+      <c r="E34" s="32" t="s">
+        <v>170</v>
       </c>
-      <c r="F34" s="44"/>
-    </row>
-    <row r="35" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B37" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="44"/>
-    </row>
-    <row r="36" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="44"/>
-    </row>
-    <row r="37" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="42"/>
       <c r="C37" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="47" t="s">
-        <v>179</v>
+      <c r="E37" s="32" t="s">
+        <v>173</v>
       </c>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="44"/>
+      <c r="E38" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="47" t="s">
-        <v>181</v>
+      <c r="E39" s="45" t="s">
+        <v>173</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="44"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="44"/>
+      <c r="E41" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="44"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="44"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="44"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="44"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
-      <c r="B47" s="42"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="44"/>
+      <c r="E47" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
-      <c r="B48" s="42"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="44"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="44"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
-      <c r="B50" s="42"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="44"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E50" s="46"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
-      <c r="B51" s="42"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
-      <c r="E51" s="47" t="s">
-        <v>183</v>
+      <c r="E51" s="46"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
       </c>
-      <c r="F51" s="44"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="42"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="44"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="5" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="44"/>
-    </row>
-    <row r="54" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>113</v>
+      <c r="E53" s="55" t="s">
+        <v>190</v>
       </c>
-      <c r="B54" s="42" t="s">
-        <v>52</v>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="49" t="s">
-        <v>78</v>
+      <c r="E54" s="55" t="s">
+        <v>191</v>
       </c>
-      <c r="F54" s="44"/>
-    </row>
-    <row r="55" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>114</v>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>108</v>
       </c>
-      <c r="B55" s="42"/>
+      <c r="B55" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="E55" s="49" t="s">
-        <v>190</v>
+      <c r="E55" s="55" t="s">
+        <v>192</v>
       </c>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>115</v>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>109</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="57" t="s">
+        <v>68</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="E56" s="49" t="s">
-        <v>80</v>
+      <c r="E56" s="45" t="s">
+        <v>193</v>
       </c>
-      <c r="F56" s="44"/>
-    </row>
-    <row r="57" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>116</v>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>110</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="5" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="E57" s="49" t="s">
-        <v>79</v>
+      <c r="E57" s="46"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>111</v>
       </c>
-      <c r="F57" s="44"/>
-    </row>
-    <row r="58" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="E58" s="49" t="s">
-        <v>188</v>
+      <c r="E58" s="46"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>112</v>
       </c>
-      <c r="F58" s="44"/>
-    </row>
-    <row r="59" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="42"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="5" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="E59" s="49" t="s">
-        <v>186</v>
+      <c r="E59" s="47"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>113</v>
       </c>
-      <c r="F59" s="44"/>
-    </row>
-    <row r="60" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="42"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="5" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="49" t="s">
-        <v>189</v>
+      <c r="E60" s="60" t="s">
+        <v>177</v>
       </c>
-      <c r="F60" s="44"/>
-    </row>
-    <row r="61" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>114</v>
       </c>
-      <c r="B61" s="42"/>
+      <c r="B61" s="57" t="s">
+        <v>52</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="49" t="s">
-        <v>81</v>
+      <c r="E61" s="56"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>115</v>
       </c>
-      <c r="F61" s="44"/>
-    </row>
-    <row r="62" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="42"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="49" t="s">
-        <v>187</v>
+      <c r="E62" s="32"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>116</v>
       </c>
-      <c r="F62" s="44"/>
-    </row>
-    <row r="63" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>163</v>
+      <c r="B63" s="58"/>
+      <c r="C63" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="49" t="s">
-        <v>184</v>
+      <c r="E63" s="32"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>117</v>
       </c>
-      <c r="F63" s="44"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="45"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="44" t="s">
-        <v>185</v>
+      <c r="E64" s="32"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>118</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="58"/>
+      <c r="C66" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="58"/>
+      <c r="C67" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="32"/>
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="58"/>
+      <c r="C68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="32"/>
+      <c r="F68" s="30"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="59"/>
+      <c r="C69" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B35:B53"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B37:B53"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="B61:B69"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B21"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="B29:B36"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="containsText" dxfId="248" priority="238" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="442" priority="439" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="239" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="441" priority="440" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="240" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="440" priority="441" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="241" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="439" priority="442" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="242" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="438" priority="443" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="containsText" dxfId="243" priority="237" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="437" priority="438" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="containsText" dxfId="242" priority="236" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="436" priority="437" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="241" priority="231" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="435" priority="432" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="232" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="434" priority="433" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="233" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="433" priority="434" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="234" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="432" priority="435" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="235" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="431" priority="436" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="236" priority="230" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="430" priority="431" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="235" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="429" priority="430" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="234" priority="224" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="428" priority="425" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="225" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="427" priority="426" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="226" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="426" priority="427" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="227" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="425" priority="428" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="228" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="424" priority="429" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="229" priority="223" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="423" priority="424" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="228" priority="222" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="422" priority="423" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D15">
-    <cfRule type="containsText" dxfId="227" priority="217" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="421" priority="418" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="218" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="420" priority="419" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="219" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="419" priority="420" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="220" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="418" priority="421" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="221" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="417" priority="422" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D15">
-    <cfRule type="containsText" dxfId="222" priority="216" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="416" priority="417" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D15">
-    <cfRule type="containsText" dxfId="221" priority="215" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="415" priority="416" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D19:D20">
-    <cfRule type="containsText" dxfId="220" priority="210" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="414" priority="411" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="211" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="413" priority="412" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="212" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="412" priority="413" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="213" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="411" priority="414" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="214" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="410" priority="415" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D19:D20">
-    <cfRule type="containsText" dxfId="215" priority="209" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="409" priority="410" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D19:D20">
-    <cfRule type="containsText" dxfId="214" priority="208" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="408" priority="409" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="213" priority="203" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="407" priority="404" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="204" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="406" priority="405" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="205" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="405" priority="406" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="206" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="404" priority="407" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="207" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="403" priority="408" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="208" priority="202" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="402" priority="403" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="207" priority="201" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="401" priority="402" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="206" priority="196" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="400" priority="397" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="197" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="399" priority="398" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="198" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="398" priority="399" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="199" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="397" priority="400" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="200" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="396" priority="401" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="201" priority="195" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="395" priority="396" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="200" priority="194" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="394" priority="395" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="containsText" dxfId="199" priority="189" operator="containsText" text="Low">
+  <conditionalFormatting sqref="D24:D25 D27">
+    <cfRule type="containsText" dxfId="393" priority="390" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="190" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="392" priority="391" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="191" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="391" priority="392" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="192" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="390" priority="393" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="193" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="389" priority="394" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="containsText" dxfId="194" priority="188" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="D24:D25 D27">
+    <cfRule type="containsText" dxfId="388" priority="389" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="containsText" dxfId="193" priority="187" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="D24:D25 D27">
+    <cfRule type="containsText" dxfId="387" priority="388" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="192" priority="182" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="386" priority="383" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="183" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="385" priority="384" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="184" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="384" priority="385" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="185" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="383" priority="386" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="186" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="382" priority="387" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="187" priority="181" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="381" priority="382" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="186" priority="180" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="380" priority="381" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="185" priority="175" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="379" priority="376" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="176" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="378" priority="377" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="177" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="377" priority="378" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="178" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="376" priority="379" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="179" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="375" priority="380" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="180" priority="174" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="374" priority="375" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="179" priority="173" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="373" priority="374" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="372" priority="369" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="370" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="370" priority="371" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="372" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="368" priority="373" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="367" priority="368" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="366" priority="367" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="365" priority="362" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="364" priority="363" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="363" priority="364" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="362" priority="365" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="366" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="360" priority="361" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="359" priority="360" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="358" priority="355" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="356" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="356" priority="357" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="358" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="359" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="353" priority="354" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="containsText" dxfId="352" priority="353" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="containsText" dxfId="351" priority="348" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="350" priority="349" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="350" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="351" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="352" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="containsText" dxfId="346" priority="347" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="containsText" dxfId="345" priority="346" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="containsText" dxfId="344" priority="341" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="342" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="343" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="344" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="345" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="containsText" dxfId="339" priority="340" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="containsText" dxfId="338" priority="339" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="337" priority="334" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="336" priority="335" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="335" priority="336" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="337" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="338" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="332" priority="333" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="331" priority="332" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="330" priority="331" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="329" priority="326" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="327" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="328" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="329" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="330" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="324" priority="325" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="323" priority="324" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="322" priority="323" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="321" priority="322" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="320" priority="317" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="318" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="319" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="320" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="321" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="315" priority="316" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 D53">
+    <cfRule type="containsText" dxfId="314" priority="315" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="313" priority="310" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="311" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="311" priority="312" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="313" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="314" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="308" priority="309" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="307" priority="308" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="306" priority="307" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="305" priority="302" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="303" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="304" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="305" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="306" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="300" priority="301" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="299" priority="300" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="298" priority="299" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="297" priority="298" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="296" priority="293" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="294" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="295" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="296" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="297" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="291" priority="292" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="containsText" dxfId="290" priority="291" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="289" priority="286" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="287" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="287" priority="288" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="289" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="290" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="284" priority="285" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="283" priority="284" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="282" priority="283" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="281" priority="278" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="279" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="280" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="281" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="282" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="276" priority="277" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="275" priority="276" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="274" priority="275" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="273" priority="274" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="272" priority="269" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="270" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="271" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="269" priority="272" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="273" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="267" priority="268" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsText" dxfId="266" priority="267" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="265" priority="262" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="263" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="263" priority="264" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="265" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="266" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="260" priority="261" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="259" priority="260" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="258" priority="259" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="257" priority="254" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="255" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="256" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="254" priority="257" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="258" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="252" priority="253" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="251" priority="252" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="250" priority="251" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="249" priority="250" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="248" priority="245" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="246" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="247" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="248" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="249" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="243" priority="244" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D52">
+    <cfRule type="containsText" dxfId="242" priority="243" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="241" priority="238" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="239" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="239" priority="240" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="241" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="242" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D68">
+    <cfRule type="containsText" dxfId="236" priority="237" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="containsText" dxfId="235" priority="236" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="containsText" dxfId="234" priority="235" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="233" priority="234" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="232" priority="233" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="231" priority="232" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="230" priority="227" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="228" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="229" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="227" priority="230" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="231" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="225" priority="226" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="224" priority="225" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="223" priority="224" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="222" priority="223" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="221" priority="222" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="220" priority="217" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="218" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="219" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="220" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="221" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="215" priority="216" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D69">
+    <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="178" priority="168" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="200" priority="197" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="169" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="199" priority="198" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="170" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="198" priority="199" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="171" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="172" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="196" priority="201" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="173" priority="167" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="195" priority="196" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="172" priority="166" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="194" priority="195" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="containsText" dxfId="171" priority="161" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="162" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="163" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="164" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="165" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D27)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="193" priority="190" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="191" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="192" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="193" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="194" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="containsText" dxfId="166" priority="160" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D27)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="188" priority="189" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="containsText" dxfId="165" priority="159" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D27)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="187" priority="188" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="containsText" dxfId="164" priority="154" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="155" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="156" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="157" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="158" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D27)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="186" priority="187" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="containsText" dxfId="159" priority="153" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D27)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="185" priority="182" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="183" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="184" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="185" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="186" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="containsText" dxfId="158" priority="152" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D27)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="180" priority="181" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="157" priority="147" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="148" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="149" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="150" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="151" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D32)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="179" priority="180" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="152" priority="146" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D32)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="178" priority="179" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="151" priority="145" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D32)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="177" priority="178" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="150" priority="140" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="141" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="142" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="143" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="144" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D32)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="176" priority="173" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="174" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="175" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="176" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="177" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="145" priority="139" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D32)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="171" priority="172" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="144" priority="138" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D32)))</formula>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="containsText" dxfId="170" priority="171" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="143" priority="133" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="134" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="135" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="136" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="137" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="169" priority="166" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="167" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="168" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="169" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="170" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="164" priority="165" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="137" priority="131" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="163" priority="164" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="136" priority="130" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="135" priority="125" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="126" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="127" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="128" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="129" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="161" priority="158" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="159" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="160" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="161" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="162" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="130" priority="124" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="129" priority="123" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="155" priority="156" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="128" priority="122" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="154" priority="155" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="127" priority="121" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="126" priority="116" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="117" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="118" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="119" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="120" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="152" priority="149" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="150" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="151" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="153" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="121" priority="115" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="147" priority="148" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D51:D53">
-    <cfRule type="containsText" dxfId="120" priority="114" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D35)))</formula>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="119" priority="109" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="110" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="111" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="112" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="145" priority="142" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="143" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="144" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="145" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="146" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="114" priority="108" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="140" priority="141" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="113" priority="107" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="139" priority="140" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="112" priority="106" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="111" priority="101" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="102" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="103" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="137" priority="134" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="135" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="136" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="137" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="138" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="106" priority="100" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="105" priority="99" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="104" priority="98" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="103" priority="97" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="129" priority="130" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="102" priority="92" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="93" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="94" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="95" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="96" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="128" priority="125" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="129" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="97" priority="91" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="123" priority="124" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="96" priority="90" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D36)))</formula>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="86" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="87" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="88" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="121" priority="118" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="119" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="122" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="90" priority="84" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="89" priority="83" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="88" priority="82" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="87" priority="77" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="78" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="79" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="113" priority="110" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="111" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="114" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="82" priority="76" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="107" priority="108" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="80" priority="74" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="79" priority="73" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="105" priority="106" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="78" priority="68" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="69" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="70" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="71" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="72" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="104" priority="101" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="73" priority="67" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="99" priority="100" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="72" priority="66" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D37)))</formula>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="97" priority="94" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="98" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="66" priority="60" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="64" priority="58" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="89" priority="86" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="87" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="90" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="58" priority="52" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="56" priority="50" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="46" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="80" priority="77" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="78" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D50">
-    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D38)))</formula>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D54)))</formula>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="73" priority="70" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D60">
-    <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="65" priority="62" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="66" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="56" priority="53" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="41" priority="38" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="containsText" dxfId="40" priority="34" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",D61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D54)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D62">
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D64)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",D63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D63)))</formula>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D64" xr:uid="{4EBAA1AB-DA77-482B-95A4-BBAF18379381}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D69" xr:uid="{4EBAA1AB-DA77-482B-95A4-BBAF18379381}">
       <formula1>Platform</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Improgress/2. Artifact and Deliverable/Requirement/TracebilityMetrix/RE_TracebilityMetrix_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/TracebilityMetrix/RE_TracebilityMetrix_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\TracebilityMetrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90AE36C-5622-46E2-A5CA-3402E63CA943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7E2C52-BF52-486B-9B62-3B290868F5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9F3A5F64-1EB5-4F1C-8BB4-9243BB22A76A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>TRACEBILITY MATRIX</t>
   </si>
@@ -385,6 +385,48 @@
   </si>
   <si>
     <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module1_ver1.4\TE_Searchaccountinformation(web)_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module2_ver1.4\TE_ViewProject(mobile)_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module2_ver1.4\TE_ViewDetailBDSProject_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module2_ver1.4\TE_ViewProject(Web)_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module2_ver1.4\TE_AddBDSProject_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module2_ver1.4\TE_ForgotPassword_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module2_ver1.4\TE_EditProject_ver1.4.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_ViewWeeklyBusinessResults(Mobile)_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_Viewbusinessresultsgraph(mobile)_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_Comparisonofbusinessresultsgraph(mobile)_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_ViewDepartment(web)_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_AddDepartment_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_EditDepartment_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_DeleteDepartment_ver1.3.xlsx</t>
+  </si>
+  <si>
+    <t>..\..\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\TE_ImportReport_ver1.3.xlsx</t>
   </si>
 </sst>
 </file>
@@ -867,6 +909,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,20 +948,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,8 +963,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1289,18 +1331,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1319,16 +1361,16 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1347,24 +1389,24 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="5"/>
       <c r="L3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="14"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1379,24 +1421,24 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="5"/>
       <c r="L4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="14"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1411,24 +1453,24 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="5"/>
       <c r="L5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="14"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1443,24 +1485,24 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="5"/>
       <c r="L6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="14"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1475,24 +1517,24 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="5"/>
       <c r="L7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="14"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1507,16 +1549,16 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -1535,16 +1577,16 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="3"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -1563,16 +1605,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="3"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1591,23 +1633,23 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1621,16 +1663,16 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="5"/>
       <c r="L12" s="18" t="s">
         <v>31</v>
@@ -1657,16 +1699,16 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="5"/>
       <c r="L13" s="19" t="s">
         <v>36</v>
@@ -1693,16 +1735,16 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="5"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
@@ -1721,16 +1763,16 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="5"/>
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
@@ -1749,16 +1791,16 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="5"/>
       <c r="L16" s="7"/>
       <c r="M16" s="6"/>
@@ -1777,16 +1819,16 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
       <c r="M17" s="6"/>
@@ -1805,16 +1847,16 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
       <c r="M18" s="6"/>
@@ -1833,16 +1875,16 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="5"/>
       <c r="L19" s="7"/>
       <c r="M19" s="6"/>
@@ -1861,16 +1903,16 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="5"/>
       <c r="L20" s="7"/>
       <c r="M20" s="6"/>
@@ -29347,45 +29389,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20734057-097D-4E08-8626-0D1D964875DC}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="83.140625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -29408,16 +29450,16 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
     </row>
@@ -29425,12 +29467,12 @@
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="32" t="s">
         <v>94</v>
       </c>
     </row>
@@ -29438,7 +29480,7 @@
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -29447,7 +29489,7 @@
       <c r="D7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="32" t="s">
         <v>95</v>
       </c>
     </row>
@@ -29455,14 +29497,14 @@
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="32" t="s">
         <v>96</v>
       </c>
     </row>
@@ -29470,14 +29512,14 @@
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="32" t="s">
         <v>97</v>
       </c>
     </row>
@@ -29485,14 +29527,14 @@
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="32" t="s">
         <v>98</v>
       </c>
     </row>
@@ -29500,14 +29542,14 @@
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="32" t="s">
         <v>99</v>
       </c>
     </row>
@@ -29515,14 +29557,14 @@
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="32" t="s">
         <v>100</v>
       </c>
     </row>
@@ -29530,14 +29572,14 @@
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="32" t="s">
         <v>101</v>
       </c>
     </row>
@@ -29545,14 +29587,14 @@
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="32" t="s">
         <v>102</v>
       </c>
     </row>
@@ -29560,14 +29602,14 @@
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -29575,14 +29617,14 @@
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -29590,7 +29632,7 @@
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="49" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="29" t="s">
@@ -29599,7 +29641,7 @@
       <c r="D17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="32" t="s">
         <v>105</v>
       </c>
     </row>
@@ -29607,14 +29649,14 @@
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="32" t="s">
         <v>106</v>
       </c>
     </row>
@@ -29622,14 +29664,14 @@
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -29637,14 +29679,14 @@
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="32" t="s">
         <v>108</v>
       </c>
     </row>
@@ -29652,14 +29694,14 @@
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="29" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -29667,7 +29709,7 @@
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -29676,196 +29718,228 @@
       <c r="D22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>19</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>20</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="32" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>21</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="32" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>22</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="32" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>23</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="32" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>24</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="1:5" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>25</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E29" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>26</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="26" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E30" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>27</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="46"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>28</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="46"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="46"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="46"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="32" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>30</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="32" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>31</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>32</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="32" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -29899,8 +29973,24 @@
     <hyperlink ref="E19" r:id="rId15" xr:uid="{CE288F1C-9751-45FE-9FC0-AF15F56BD55F}"/>
     <hyperlink ref="E20" r:id="rId16" xr:uid="{97A0161B-E5A9-4309-87CF-27F89C25F144}"/>
     <hyperlink ref="E21" r:id="rId17" xr:uid="{39B011BE-4401-49E1-BAA4-288A2FEDA20F}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{948D6DC5-7E20-4EE7-9A04-E2CE6279FB7B}"/>
+    <hyperlink ref="E23" r:id="rId19" xr:uid="{E17CF6D4-22C9-4988-8A1C-7D09FC1679F9}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{042592E8-2EEA-4087-823C-1649D56F82CA}"/>
+    <hyperlink ref="E25" r:id="rId21" xr:uid="{7AF9EBBF-A735-4931-B7AF-4DC4A59808D7}"/>
+    <hyperlink ref="E26" r:id="rId22" xr:uid="{763C8A37-275D-4DA6-819A-B1A2CD25511A}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{8BBD8643-21F4-458D-91D8-E25718561508}"/>
+    <hyperlink ref="E28" r:id="rId24" xr:uid="{9B99318A-8884-413F-9FD5-121020B42233}"/>
+    <hyperlink ref="E29" r:id="rId25" xr:uid="{18AC059C-CA20-4771-A21F-C9918FE35ADD}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{F1FF81FD-0459-4030-BA23-1C2AAD7ECECE}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{3CDD62F1-E2AD-4247-AB9E-59F25D5DA891}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{8D5C6B77-C6E3-4AA9-8711-44B8DF2688A6}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{E500AB9A-BE9B-4CD3-908E-9F521C1D641C}"/>
+    <hyperlink ref="E34" r:id="rId30" xr:uid="{BF678F0A-E203-40A2-A6F6-A1265345523C}"/>
+    <hyperlink ref="E35" r:id="rId31" xr:uid="{EC912332-29CE-427C-816C-B63CE9CAE1E7}"/>
+    <hyperlink ref="E36" r:id="rId32" xr:uid="{D1BBC0DE-DCEA-4F6B-9CBB-6D765E1F34E4}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{A4150FDE-6E36-4E76-B020-FFE1C9C909AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Improgress/2. Artifact and Deliverable/Requirement/TracebilityMetrix/RE_TracebilityMetrix_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/TracebilityMetrix/RE_TracebilityMetrix_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\TracebilityMetrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\TracebilityMetrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7E2C52-BF52-486B-9B62-3B290868F5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00CE86-325A-45D9-A301-16FC2EA1E7C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9F3A5F64-1EB5-4F1C-8BB4-9243BB22A76A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9F3A5F64-1EB5-4F1C-8BB4-9243BB22A76A}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="3" r:id="rId1"/>
@@ -971,8 +971,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1317,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D778BBB2-CB60-4A37-83DC-7F32DA6C4577}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
@@ -29389,7 +29389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20734057-097D-4E08-8626-0D1D964875DC}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -29568,7 +29568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>9</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>11</v>
       </c>
